--- a/biology/Médecine/1575_en_santé_et_médecine/1575_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1575_en_santé_et_médecine/1575_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1575_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1575_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1575 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1575_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1575_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1575-1576 : une épidémie de peste frappe Venise, qui fait plus de soixante mille victimes et dont la fin sera commémorée chaque année par la fête du Rédempteur[1],[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>1575-1576 : une épidémie de peste frappe Venise, qui fait plus de soixante mille victimes et dont la fin sera commémorée chaque année par la fête du Rédempteur,.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1575_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1575_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,13 +555,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Giulio Alessandrini[3] fait paraître à Cologne, sous le titre de Salubrium, sive De sanitate tuenda, libri triginta tres, une « compilation de quantités de choses que les Anciens ont avancées sur le régime[4] ».
-John Banister (en) fait paraître à Londres, chez Thomas Marshe et sous le titre de A needefull, new, and necessarie treatise of chyrurgerie, une édition revue, corrigée et augmentée de divers écrits d'Antoine Chaumet et de Jean Tagault[5].
-Ambroise Paré : Œuvres chirurgicales[6].
-Li Chan, Yï Xuè Rù Mén (« Porte d'entrée dans la médecine[7] »).
-Le prêtre taoiste Bao Guang publie sa « Discussion sur l'Ophtalmologie de Longmu » (Dao Ren Yan Ke Long Mu Ji) en annexe à une édition de l'« Ophtalmologie de Longmu transmise en secret » (Mi Chuan Yan Ke Long Mu Lun (秘傳眼科龍木論)) , compilation de traités des dynasties Song et Yuan[7],[8].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Giulio Alessandrini fait paraître à Cologne, sous le titre de Salubrium, sive De sanitate tuenda, libri triginta tres, une « compilation de quantités de choses que les Anciens ont avancées sur le régime ».
+John Banister (en) fait paraître à Londres, chez Thomas Marshe et sous le titre de A needefull, new, and necessarie treatise of chyrurgerie, une édition revue, corrigée et augmentée de divers écrits d'Antoine Chaumet et de Jean Tagault.
+Ambroise Paré : Œuvres chirurgicales.
+Li Chan, Yï Xuè Rù Mén (« Porte d'entrée dans la médecine »).
+Le prêtre taoiste Bao Guang publie sa « Discussion sur l'Ophtalmologie de Longmu » (Dao Ren Yan Ke Long Mu Ji) en annexe à une édition de l'« Ophtalmologie de Longmu transmise en secret » (Mi Chuan Yan Ke Long Mu Lun (秘傳眼科龍木論)) , compilation de traités des dynasties Song et Yuan,.</t>
         </is>
       </c>
     </row>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1575_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1575_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Naissance</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Louis Hébert (mort en 1627), apothicaire français, procureur du roi, premier colon à s'installer en Nouvelle-France[9].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Louis Hébert (mort en 1627), apothicaire français, procureur du roi, premier colon à s'installer en Nouvelle-France.</t>
         </is>
       </c>
     </row>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1575_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1575_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,10 +623,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Agostino Gadaldini (né en 1515), traducteur de Galien en latin[10].
-Costanzo Varolio (né en 1543), anatomiste italien[11].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Agostino Gadaldini (né en 1515), traducteur de Galien en latin.
+Costanzo Varolio (né en 1543), anatomiste italien.</t>
         </is>
       </c>
     </row>
